--- a/biology/Médecine/Paul_Reiss/Paul_Reiss.xlsx
+++ b/biology/Médecine/Paul_Reiss/Paul_Reiss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Reiss, né le 24 mars 1901 à Strasbourg et exécuté le 22 juin 1944 à Saint-Just (Cantal), est un résistant et médecin français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrégé de physique biologique à la Faculté de médecine de Strasbourg à partir de 1930[1], il est mobilisé dans l'armée française au début de la Seconde Guerre mondiale. Rejoignant ensuite l'université de Strasbourg repliée à Clermont-Ferrand, il entre dans la Résistance[2]avec le pseudonyme de Raymond[3].
-Il rejoint le 17 mai 1944 le maquis du Mont-Mouchet. En qualité de médecin-chef du Service de Santé des Forces françaises de l'intérieur du Cantal, il dirigea l’évacuation des blessés après l’attaque allemande contre les forces FFI[3].
-Il est fait prisonnier puis immédiatement abattu par l'armée allemande[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrégé de physique biologique à la Faculté de médecine de Strasbourg à partir de 1930, il est mobilisé dans l'armée française au début de la Seconde Guerre mondiale. Rejoignant ensuite l'université de Strasbourg repliée à Clermont-Ferrand, il entre dans la Résistanceavec le pseudonyme de Raymond.
+Il rejoint le 17 mai 1944 le maquis du Mont-Mouchet. En qualité de médecin-chef du Service de Santé des Forces françaises de l'intérieur du Cantal, il dirigea l’évacuation des blessés après l’attaque allemande contre les forces FFI.
+Il est fait prisonnier puis immédiatement abattu par l'armée allemande.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom figure sur le monument au mort de Beaumont, ainsi que sur les plaques commémoratives de l'Université de Strasbourg et sur celle de médecine de Paris-Descartes[3].
-Le 11 novembre 1947, son corps est transféré dans la crypte de la chapelle de la Sorbonne, aux côtés des victimes représentant la Résistance universitaire[3].
-Une rue porte son nom à Strasbourg[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom figure sur le monument au mort de Beaumont, ainsi que sur les plaques commémoratives de l'Université de Strasbourg et sur celle de médecine de Paris-Descartes.
+Le 11 novembre 1947, son corps est transféré dans la crypte de la chapelle de la Sorbonne, aux côtés des victimes représentant la Résistance universitaire.
+Une rue porte son nom à Strasbourg.
 </t>
         </is>
       </c>
@@ -577,12 +593,14 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il est reconnu Mort pour la France et Interné résistant[6],[7].
- Chevalier de la Légion d'honneur[3]
- Croix de guerre 1939-1945[3]
- Médaille de la Résistance française avec rosette par décret du 24 avril 1946[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il est reconnu Mort pour la France et Interné résistant,.
+ Chevalier de la Légion d'honneur
+ Croix de guerre 1939-1945
+ Médaille de la Résistance française avec rosette par décret du 24 avril 1946.
  Médaille des services militaires volontaires, bronze</t>
         </is>
       </c>
